--- a/Data/Input/UpdateFile.xlsx
+++ b/Data/Input/UpdateFile.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="15912" windowHeight="7692" firstSheet="0" activeTab="0"/>
+    <x:workbookView windowWidth="21000" windowHeight="8424" firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <x:t>SHOULD_POST_TWITTER</x:t>
   </x:si>
   <x:si>
-    <x:t>01/09/2023</x:t>
+    <x:t>04/09/2023</x:t>
   </x:si>
   <x:si>
     <x:t>Celebrating art-work on Twitter</x:t>
@@ -53,25 +53,25 @@
     <x:t>Hello People, rounding up with the project.,..!</x:t>
   </x:si>
   <x:si>
+    <x:t>C:\Users\decadev\Downloads\6.jpg</x:t>
+  </x:si>
+  <x:si>
     <x:t>F-Posted : L-Not Posted : T-Not Posted</x:t>
   </x:si>
   <x:si>
     <x:t>YES</x:t>
   </x:si>
   <x:si>
-    <x:t>YO</x:t>
-  </x:si>
-  <x:si>
     <x:t>NO</x:t>
   </x:si>
   <x:si>
     <x:t>Still on the project</x:t>
   </x:si>
   <x:si>
-    <x:t>C:\Users\decadev\Downloads\6.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">F-Not Posted :  : </x:t>
+    <x:t>C:\Users\decadev\Downloads\4.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F-Not Posted : L- Posted : T- Posted</x:t>
   </x:si>
   <x:si>
     <x:t>Testing my automation skill</x:t>
@@ -80,10 +80,10 @@
     <x:t>This is me testing my automation</x:t>
   </x:si>
   <x:si>
-    <x:t>C:\Users\decadev\Downloads\3.jpg;C:\Users\decadev\Downloads\mbappe.jpg;C:\Users\decadev\Downloads\6.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> : L-Not Posted : </x:t>
+    <x:t>C:\Users\decadev\Downloads\6.jpg;C:\Users\decadev\Downloads\mbappe.jpg;C:\Users\decadev\Downloads\2.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F-Posted : L- Posted : T- Posted</x:t>
   </x:si>
   <x:si>
     <x:t>I am here</x:t>
@@ -101,11 +101,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="4">
+    <x:numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <x:numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <x:numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <x:numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="22">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -122,6 +125,150 @@
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color rgb="FF0000FF"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color rgb="FF800080"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FFFF0000"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="18"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:i/>
+      <x:sz val="11"/>
+      <x:color rgb="FF7F7F7F"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="15"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="13"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF3F3F76"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FF3F3F3F"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFA7D00"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFFFFFF"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FFFA7D00"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF006100"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF9C0006"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF9C6500"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="0"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -129,15 +276,201 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="33">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFFCC"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFCC99"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFF2F2F2"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFA5A5A5"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFC6EFCE"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFC7CE"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFEB9C"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="9">
     <x:border>
       <x:left/>
       <x:right/>
@@ -145,10 +478,252 @@
       <x:bottom/>
       <x:diagonal/>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="medium">
+        <x:color theme="4"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="medium">
+        <x:color theme="4" tint="0.499984740745262"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="double">
+        <x:color rgb="FFFF8001"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top style="thin">
+        <x:color theme="4"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color theme="4"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="53">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -157,25 +732,73 @@
     <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="58" fontId="0" fillId="0" borderId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <x:alignment wrapText="1"/>
+    </x:xf>
     <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <x:alignment wrapText="1"/>
-    </x:xf>
+    <x:xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="49">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <x:cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <x:cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <x:cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <x:cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <x:cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <x:cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <x:cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <x:cellStyle name="Note" xfId="8" builtinId="10"/>
+    <x:cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <x:cellStyle name="Title" xfId="10" builtinId="15"/>
+    <x:cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <x:cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <x:cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <x:cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <x:cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <x:cellStyle name="Input" xfId="16" builtinId="20"/>
+    <x:cellStyle name="Output" xfId="17" builtinId="21"/>
+    <x:cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <x:cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <x:cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <x:cellStyle name="Total" xfId="21" builtinId="25"/>
+    <x:cellStyle name="Good" xfId="22" builtinId="26"/>
+    <x:cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <x:cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <x:cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <x:cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <x:cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <x:cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <x:cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <x:cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <x:cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <x:cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <x:cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <x:cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <x:cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <x:cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <x:cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <x:cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <x:cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <x:cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <x:cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <x:cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <x:cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <x:cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <x:cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <x:cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <x:cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <x:cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <x:extLst>
@@ -467,61 +1090,60 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:H11"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <x:selection activeCell="D4" sqref="D4"/>
+      <x:selection activeCell="E2" sqref="E2 E2:E5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="255" defaultRowHeight="14.4"/>
   <x:cols>
-    <x:col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="32.21875" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="42.21875" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="48.664062" style="6" customWidth="1"/>
-    <x:col min="5" max="5" width="26.664062" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="23.886719" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="22.777344" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="22.21875" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="19" style="2" customWidth="1"/>
+    <x:col min="2" max="2" width="32.222222" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="42.222222" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="48.666667" style="3" customWidth="1"/>
+    <x:col min="5" max="5" width="40" style="3" customWidth="1"/>
+    <x:col min="6" max="6" width="23.888889" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="22.777778" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="22.222222" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8" s="4" customFormat="1">
-      <x:c r="A1" s="3" t="s">
+    <x:row r="1" spans="1:8" s="1" customFormat="1">
+      <x:c r="A1" s="4" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s">
+      <x:c r="B1" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="3" t="s">
+      <x:c r="C1" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="3" t="s">
+      <x:c r="E1" s="5" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="3" t="s">
+      <x:c r="F1" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="3" t="s">
+      <x:c r="G1" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="3" t="s">
+      <x:c r="H1" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="2" t="s">
+      <x:c r="A2" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
@@ -530,44 +1152,47 @@
       <x:c r="C2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="D2" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="E2" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D3" s="6" t="s">
+      <x:c r="D3" s="3" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="E3" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" customFormat="1" ht="30" customHeight="1">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
@@ -576,24 +1201,24 @@
       <x:c r="C4" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D4" s="6" t="s">
+      <x:c r="D4" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="E4" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
@@ -602,7 +1227,7 @@
       <x:c r="C5" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="E5" s="3" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
@@ -621,64 +1246,73 @@
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s"/>
     </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="D9" s="0" t="s"/>
+    </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="A1" sqref="A1"/>
+    </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="255" defaultRowHeight="14.4"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="A1" sqref="A1"/>
+    </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="255" defaultRowHeight="14.4"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="E2"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="A1" sqref="A1"/>
+    </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="255" defaultRowHeight="14.4"/>
   <x:sheetData>
@@ -690,7 +1324,7 @@
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/Data/Input/UpdateFile.xlsx
+++ b/Data/Input/UpdateFile.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <x:si>
     <x:t>DATE</x:t>
   </x:si>
@@ -44,7 +44,7 @@
     <x:t>SHOULD_POST_TWITTER</x:t>
   </x:si>
   <x:si>
-    <x:t>04/09/2023</x:t>
+    <x:t>05/09/2023</x:t>
   </x:si>
   <x:si>
     <x:t>Celebrating art-work on Twitter</x:t>
@@ -56,7 +56,7 @@
     <x:t>C:\Users\decadev\Downloads\6.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>F-Posted : L-Not Posted : T-Not Posted</x:t>
+    <x:t xml:space="preserve"> : L-Not Posted : </x:t>
   </x:si>
   <x:si>
     <x:t>YES</x:t>
@@ -71,7 +71,7 @@
     <x:t>C:\Users\decadev\Downloads\4.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>F-Not Posted : L- Posted : T- Posted</x:t>
+    <x:t xml:space="preserve"> : L- Posted : </x:t>
   </x:si>
   <x:si>
     <x:t>Testing my automation skill</x:t>
@@ -83,16 +83,10 @@
     <x:t>C:\Users\decadev\Downloads\6.jpg;C:\Users\decadev\Downloads\mbappe.jpg;C:\Users\decadev\Downloads\2.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>F-Posted : L- Posted : T- Posted</x:t>
-  </x:si>
-  <x:si>
     <x:t>I am here</x:t>
   </x:si>
   <x:si>
     <x:t>Project Completed….,!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F-Not Posted : L-Not Posted : T-Not Posted</x:t>
   </x:si>
   <x:si>
     <x:t>NOT DONE</x:t>
@@ -1165,7 +1159,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -1205,7 +1199,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>13</x:v>
@@ -1222,13 +1216,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>14</x:v>
@@ -1318,7 +1312,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:5">
       <x:c r="E2" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Input/UpdateFile.xlsx
+++ b/Data/Input/UpdateFile.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>DATE</x:t>
   </x:si>
@@ -44,7 +44,7 @@
     <x:t>SHOULD_POST_TWITTER</x:t>
   </x:si>
   <x:si>
-    <x:t>05/09/2023</x:t>
+    <x:t>06/09/2023</x:t>
   </x:si>
   <x:si>
     <x:t>Celebrating art-work on Twitter</x:t>
@@ -56,7 +56,7 @@
     <x:t>C:\Users\decadev\Downloads\6.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> : L-Not Posted : </x:t>
+    <x:t>F-Posted : L-Not Posted : T-Not Posted</x:t>
   </x:si>
   <x:si>
     <x:t>YES</x:t>
@@ -71,7 +71,7 @@
     <x:t>C:\Users\decadev\Downloads\4.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> : L- Posted : </x:t>
+    <x:t>F-Not Posted : L- Posted : T- Posted</x:t>
   </x:si>
   <x:si>
     <x:t>Testing my automation skill</x:t>
@@ -83,10 +83,16 @@
     <x:t>C:\Users\decadev\Downloads\6.jpg;C:\Users\decadev\Downloads\mbappe.jpg;C:\Users\decadev\Downloads\2.jpg</x:t>
   </x:si>
   <x:si>
+    <x:t>F-Posted : L- Posted : T- Posted</x:t>
+  </x:si>
+  <x:si>
     <x:t>I am here</x:t>
   </x:si>
   <x:si>
     <x:t>Project Completed….,!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F-Not Posted : L-Not Posted : T-Not Posted</x:t>
   </x:si>
   <x:si>
     <x:t>NOT DONE</x:t>
@@ -1094,7 +1100,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:H11"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <x:selection activeCell="E2" sqref="E2 E2:E5"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1199,7 +1205,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>13</x:v>
@@ -1216,13 +1222,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>14</x:v>
@@ -1312,7 +1318,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:5">
       <x:c r="E2" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Input/UpdateFile.xlsx
+++ b/Data/Input/UpdateFile.xlsx
@@ -44,7 +44,7 @@
     <x:t>SHOULD_POST_TWITTER</x:t>
   </x:si>
   <x:si>
-    <x:t>06/09/2023</x:t>
+    <x:t>07/09/2023</x:t>
   </x:si>
   <x:si>
     <x:t>Celebrating art-work on Twitter</x:t>
@@ -53,10 +53,10 @@
     <x:t>Hello People, rounding up with the project.,..!</x:t>
   </x:si>
   <x:si>
-    <x:t>C:\Users\decadev\Downloads\6.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F-Posted : L-Not Posted : T-Not Posted</x:t>
+    <x:t>C:\Users\decadev\Downloads\2.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F-Posted : L-Not Posted : T- Posted</x:t>
   </x:si>
   <x:si>
     <x:t>YES</x:t>
@@ -80,7 +80,7 @@
     <x:t>This is me testing my automation</x:t>
   </x:si>
   <x:si>
-    <x:t>C:\Users\decadev\Downloads\6.jpg;C:\Users\decadev\Downloads\mbappe.jpg;C:\Users\decadev\Downloads\2.jpg</x:t>
+    <x:t>C:\Users\decadev\Downloads\3.jpg;C:\Users\decadev\Downloads\mbappe.jpg;C:\Users\decadev\Downloads\2.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>F-Posted : L- Posted : T- Posted</x:t>
@@ -1098,10 +1098,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H11"/>
+  <x:dimension ref="A1:H20"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <x:selection activeCell="E2" sqref="E2 E2:E5"/>
+    <x:sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <x:selection activeCell="E2" sqref="E2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="255" defaultRowHeight="14.4"/>
@@ -1245,12 +1245,16 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="D9" s="0" t="s"/>
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:8">
+      <x:c r="A20" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
